--- a/student_list.xlsx
+++ b/student_list.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac8001eaf239fe7a/Documents/NetBeansProjects/CAMs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac8001eaf239fe7a/Documents/NetBeansProjects/SC2002-CAMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{E5A21032-4AA7-4669-B59C-E86C3DA62B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBBED396-0EAF-4D8B-B75A-3833BDA38B4F}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{E5A21032-4AA7-4669-B59C-E86C3DA62B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A4661B2-20FF-4CE8-8E2E-85639B230E0F}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -138,12 +138,16 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Points</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -484,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -492,12 +496,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" customWidth="1"/>
-    <col min="2" max="2" width="36.6328125" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="30.54296875"/>
+    <col min="2" max="2" customWidth="true" width="36.6328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.453125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -513,192 +517,228 @@
       <c r="E1" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E3" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="0">
         <v>31</v>
+      </c>
+      <c r="F12" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/student_list.xlsx
+++ b/student_list.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>Points</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -635,7 +638,7 @@
         <v>25</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F7" s="0">
         <v>0</v>
@@ -695,7 +698,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F10" s="0">
         <v>0</v>
@@ -715,7 +718,7 @@
         <v>28</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F11" s="0">
         <v>0</v>

--- a/student_list.xlsx
+++ b/student_list.xlsx
@@ -560,8 +560,8 @@
       <c r="E3" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="F3" s="0">
-        <v>0</v>
+      <c r="F3" s="0" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">

--- a/student_list.xlsx
+++ b/student_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac8001eaf239fe7a/Documents/NetBeansProjects/SC2002-CAMS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac8001eaf239fe7a/Documents/NetBeansProjects/SC2002-CAMSV2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{E5A21032-4AA7-4669-B59C-E86C3DA62B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A4661B2-20FF-4CE8-8E2E-85639B230E0F}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{E5A21032-4AA7-4669-B59C-E86C3DA62B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95C53DB1-2B03-4D80-A16D-38A32AC84AD8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -134,16 +134,16 @@
     <t>password</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
     <t>Points</t>
   </si>
   <si>
-    <t>test</t>
+    <t>myPassword</t>
+  </si>
+  <si>
+    <t>password123</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -506,7 +506,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -521,7 +521,7 @@
         <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -538,7 +538,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="0">
         <v>0</v>
@@ -558,10 +558,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>1.0</v>
+        <v>34</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -598,10 +598,10 @@
         <v>25</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>2.0</v>
+        <v>31</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -638,7 +638,7 @@
         <v>25</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F7" s="0">
         <v>0</v>
@@ -658,10 +658,10 @@
         <v>26</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="F8" s="0">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -698,7 +698,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F10" s="0">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>28</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F11" s="0">
         <v>0</v>

--- a/student_list.xlsx
+++ b/student_list.xlsx
@@ -661,7 +661,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
